--- a/client/src/Excel/Data/Countries/sa.xlsx
+++ b/client/src/Excel/Data/Countries/sa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066EDEA5-79A8-4E1A-B99F-BB1E48A68AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="341">
   <si>
     <t>Title</t>
   </si>
@@ -59,30 +60,12 @@
     <t>TargetDate</t>
   </si>
   <si>
-    <t>back-to-school.webp</t>
-  </si>
-  <si>
-    <t>هو حدث يتميز بأهمية كبيرة في التقويم السنوي. سواء كان مرتبطًا بالتعليم مثل "المدارس" أو مناسبة دينية مثل "رمضان"، فهو يؤثر على جميع جوانب الحياة اليومية. من المهم أن نكون على استعداد لهذا الحدث للحصول على تجربة سلسة وناجحة.</t>
-  </si>
-  <si>
-    <t>ramadan.webp</t>
-  </si>
-  <si>
-    <t>ramadan</t>
-  </si>
-  <si>
     <t>Helmet_Description</t>
   </si>
   <si>
     <t>Helmet_Keywords</t>
   </si>
   <si>
-    <t>مدارس، موعد، دوام، مدرسة</t>
-  </si>
-  <si>
-    <t>TitleInternal</t>
-  </si>
-  <si>
     <t>LastUpdated</t>
   </si>
   <si>
@@ -95,42 +78,12 @@
     <t>CountDown</t>
   </si>
   <si>
-    <t>المدرسة</t>
-  </si>
-  <si>
-    <t>يمكنكم من خلال العد التنازلي في الأعلى من معرفة كم باقي يوم على المدرسه بكل سهولة، حيث يبين لكم العد التنازلي لبداية المدرسة عدد الأيام المتبقية على المدرسة.</t>
-  </si>
-  <si>
-    <t>التعد التنازلي ل بدء المدرسة</t>
-  </si>
-  <si>
-    <t>ا</t>
-  </si>
-  <si>
-    <t>كم باقي على الجامعة في السعودية</t>
-  </si>
-  <si>
-    <t>كم باقي على افتتاح شركة آبل في السعودية</t>
-  </si>
-  <si>
-    <t>كم_باقي_على_الجامعة_السعودية</t>
-  </si>
-  <si>
     <t>countryCode</t>
   </si>
   <si>
     <t>isHoliday</t>
   </si>
   <si>
-    <t>كم باقي على عطلة عيد العمال في السعودية</t>
-  </si>
-  <si>
-    <t>كم باقي على عطلة رأس السنة الهجرية في السعودية</t>
-  </si>
-  <si>
-    <t>كم باقي على عطلة عيد الشهداء في السعودية</t>
-  </si>
-  <si>
     <t>sa</t>
   </si>
   <si>
@@ -140,38 +93,985 @@
     <t>linkTitle</t>
   </si>
   <si>
-    <t>https://datehijri.com/ramadan.html</t>
-  </si>
-  <si>
-    <t>موعد شهر رمضان</t>
-  </si>
-  <si>
-    <t>موعد الجامعة في السعودية</t>
-  </si>
-  <si>
-    <t>موعد آبل</t>
-  </si>
-  <si>
-    <t>موعد عيد العمال</t>
-  </si>
-  <si>
-    <t>موعد رأس السنة الهجرية</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>saudi-national-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_الوطني_السعودي</t>
+  </si>
+  <si>
+    <t>2025-09-23T00:00:00</t>
+  </si>
+  <si>
+    <t>من خلال العد التنازلي لليوم الوطني السعودي، يمكنكم معرفة كم باقي يوم على اليوم الوطني السعودي 2025 بكل سهولة. هذا اليوم هو احتفال وطني يحيي ذكرى توحيد المملكة العربية السعودية على يد الملك عبدالعزيز بن عبدالرحمن آل سعود. إنه فرصة للجميع للتعبير عن حبهم للوطن والاعتزاز بقيم المملكة وثقافتها. يتميز اليوم الوطني بأحداث وطنية متنوعة تشمل عروض عسكرية، حفلات موسيقية، عروض الألعاب النارية، ومسيرات احتفالية تجسد الوحدة الوطنية والفخر بالتقدم الذي أحرزته المملكة.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لليوم الوطني السعودي</t>
+  </si>
+  <si>
+    <t>اليوم الوطني السعودي هو حدث وطني يحتفل به السعوديون في 23 سبتمبر من كل عام. يعود هذا اليوم إلى العام 1932 عندما تم توحيد المملكة العربية السعودية تحت قيادة الملك عبدالعزيز. يعتبر هذا اليوم واحدًا من أهم الأعياد الوطنية في المملكة، حيث يتم الاحتفاء بتاريخ طويل من الإنجازات والتطورات التي مرت بها البلاد على مر العقود. يشمل الاحتفال به تجديد الولاء للقيادة والتعبير عن مشاعر الفخر الوطني من خلال فعاليات متنوعة.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يعتبر اليوم الوطني السعودي واحداً من أهم المناسبات الوطنية في المملكة العربية السعودية. إنه ليس مجرد احتفال سنوي، بل هو رمز للوحدة الوطنية والقوة والاستقرار التي حققتها المملكة على مدى عقود. يمثل هذا اليوم فرصة للسعوديين للتعبير عن حبهم وانتمائهم لوطنهم، سواء من خلال رفع العلم الوطني، أو حضور الفعاليات التي تنظمها الدولة. كما يتميز اليوم الوطني بالتذكير بالتقدم الهائل الذي أحرزته المملكة في مختلف المجالات الاقتصادية، التعليمية، الاجتماعية، والثقافية، حيث أصبح هذا اليوم رمزاً للتطور والازدهار. يمثل الاحتفال باليوم الوطني السعودي أيضاً فرصة للشباب للتعرف على تاريخ بلادهم وتقدير الجهود التي بذلتها الأجيال السابقة لبناء المملكة.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التحضير لليوم الوطني السعودي يتطلب استعدادات متنوعة لضمان نجاح الاحتفالات والفعاليات. من أهم جوانب التحضير هو تزيين الشوارع والمباني بالعلم الوطني والرموز الوطنية التي تعبر عن الفخر والانتماء للمملكة. كما تقوم العديد من المؤسسات العامة والخاصة بتنظيم فعاليات مثل العروض العسكرية والمسيرات الاحتفالية والحفلات الموسيقية. من المهم أيضاً التحضير النفسي لهذه المناسبة من خلال تعزيز الشعور بالوحدة الوطنية والاحتفاء بالقيم التي تجسدها المملكة. يجب أن يكون هناك اهتمام خاص بتنظيم الفعاليات بطريقة تضمن المشاركة الفعالة من قبل جميع أفراد المجتمع، بما في ذلك العائلات والأطفال والشباب.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">في ختام اليوم الوطني السعودي، يتذكر الجميع القيم الوطنية التي تجمعهم وتوحدهم تحت راية المملكة العربية السعودية. إنه يوم يجدد فيه السعوديون ولاءهم واعتزازهم بوطنهم وتاريخهم العريق. من خلال الاحتفال باليوم الوطني، يتم تعزيز الروابط الاجتماعية والوطنية بين المواطنين، مما يسهم في بناء مستقبل أفضل وأكثر ازدهاراً للمملكة. يمثل اليوم الوطني أيضاً فرصة للتأكيد على أن المملكة تسير بخطى ثابتة نحو تحقيق أهدافها الاستراتيجية في مختلف المجالات.	</t>
+  </si>
+  <si>
+    <t>https://www.mofa.gov.sa/ar/ksa/Pages/nationalday.aspx</t>
+  </si>
+  <si>
+    <t>اليوم الوطني السعودي  - وزارة الخارجية السعودية</t>
+  </si>
+  <si>
+    <t>saudi-founding-day.webp</t>
+  </si>
+  <si>
+    <t>2025-02-22T00:00:00</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي ليوم التأسيس السعودي معرفة كم باقي على هذا اليوم الهام الذي يحيي ذكرى تأسيس الدولة السعودية الأولى في العام 1727. يعد هذا اليوم فرصة لتذكر تاريخ طويل من النضال والوحدة التي بدأت بقيادة الإمام محمد بن سعود. يوم التأسيس السعودي يجسد الانطلاقة الحقيقية لتأسيس كيان قوي ومستقل في شبه الجزيرة العربية، وهو يوم يعتز به السعوديون لتاريخهم وثقافتهم. تتنوع الفعاليات التي تقام في هذا اليوم، من احتفالات رسمية إلى أنشطة ثقافية وتاريخية تعزز الهوية الوطنية.</t>
+  </si>
+  <si>
+    <t>العد التنازلي ليوم التأسيس السعودي</t>
+  </si>
+  <si>
+    <t>يوم التأسيس السعودي هو يوم وطني يحتفل فيه السعوديون بذكرى تأسيس الدولة السعودية الأولى. يعود هذا اليوم إلى 22 فبراير 1727، حيث أسس الإمام محمد بن سعود الدولة السعودية الأولى في منطقة الدرعية. يعتبر هذا اليوم من المناسبات الوطنية الهامة في تاريخ المملكة، حيث يرمز إلى بداية حقبة جديدة من الوحدة والاستقلال في شبه الجزيرة العربية. يمثل يوم التأسيس فرصة لاستعادة روح المبادرة التي كانت تتمتع بها المملكة في تلك الفترة، ويعزز من فخر السعوديين بتاريخهم الطويل والمستقل.</t>
+  </si>
+  <si>
+    <t>يمثل يوم التأسيس السعودي أحد أهم الأحداث التاريخية في المملكة، حيث يذكر السعوديين بالجذور العميقة لدولتهم وتاريخهم المجيد. يحتفل السعوديون في هذا اليوم بتاريخ طويل من الوحدة والشجاعة والقيادة الحكيمة. كما يعد هذا اليوم فرصة لتعزيز الهوية الوطنية وتذكير الأجيال الجديدة بتاريخهم وارتباطهم بجذورهم العميقة. إنه يوم ليس فقط لتكريم الماضي، بل أيضاً للاحتفال بالإنجازات الحديثة التي وصلت إليها المملكة، والتي تأسست على القيم والمبادئ التي وضعها الإمام محمد بن سعود. يجسد يوم التأسيس رحلة طويلة من النضال من أجل الوحدة والاستقرار، والتي انتهت بتأسيس المملكة العربية السعودية القوية والمستقلة.</t>
+  </si>
+  <si>
+    <t>التحضير ليوم التأسيس السعودي يتطلب جهوداً مكثفة لتعزيز الهوية الوطنية وتقديم تاريخ الدولة السعودية الأولى بصورة مشرفة. يتم التحضير للاحتفال من خلال تنظيم أنشطة تاريخية وثقافية تسلط الضوء على الإرث العظيم للدولة السعودية الأولى. كما يتم تزيين الشوارع والمباني بالرموز الوطنية التي تعبر عن الفخر بالتاريخ العريق للمملكة. من الجوانب الهامة للتحضير لهذا اليوم هو تقديم عروض تاريخية تحاكي أحداث التأسيس والقيادة الحكيمة التي قادت إلى تأسيس الدولة. هذه العروض تهدف إلى ترسيخ أهمية هذا الحدث في ذاكرة الأجيال الصاعدة وتعزيز الروابط الوطنية بين السعوديين.</t>
+  </si>
+  <si>
+    <t>في ختام يوم التأسيس السعودي، يتذكر الجميع الجذور التاريخية العميقة التي تربط السعوديين بأرضهم وهويتهم الوطنية. هذا اليوم ليس مجرد مناسبة للاحتفال بالتاريخ، بل هو مناسبة لتجديد الولاء والانتماء للوطن. إنه يوم يعيد للأذهان قيمة الوحدة والشجاعة التي تجسدها الدولة السعودية الأولى، ويؤكد أن المملكة العربية السعودية الحديثة تأسست على تلك المبادئ الراسخة. الاحتفال بيوم التأسيس يعزز من الروابط الوطنية ويساعد على بناء مستقبل أكثر إشراقاً للمملكة.</t>
+  </si>
+  <si>
+    <t>https://datehijri.com/saudi-founding-day-2025.html</t>
+  </si>
+  <si>
+    <t>موعد يوم التأسيس السعودي 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_يوم_التاسيس_السعودي</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_إجازة_منتصف_العام_الدراسي_في_السعودية</t>
+  </si>
+  <si>
+    <t>2025-01-03T00:00:00</t>
+  </si>
+  <si>
+    <t>إجازة منتصف العام الدراسي في السعودية 2025 هي من أهم الإجازات الدراسية التي ينتظرها الطلاب بفارغ الصبر. تبدأ هذه الإجازة في 3 يناير 2025، وهي فترة استراحة حاسمة للطلاب بعد انتهاء الفصل الدراسي الأول. تعتبر فرصة للراحة وتجديد النشاط قبل العودة لمواصلة الدراسة في الفصل الدراسي الثاني. العد التنازلي لهذه الإجازة يمثل شغف الطلاب والأسرة على حد سواء بمعرفة "كم باقي على إجازة منتصف العام؟" وتقوم المدارس والجهات التعليمية بتنظيم الأنشطة التي تضمن ترفيه الطلاب وتساعدهم في استغلال هذه الإجازة بشكل إيجابي.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لإجازة منتصف العام الدراسي</t>
+  </si>
+  <si>
+    <t>إجازة منتصف العام الدراسي هي فترة يترقبها الطلاب بشغف، حيث يتساءل الجميع "متى موعد إجازة منتصف العام الدراسي؟".</t>
+  </si>
+  <si>
+    <t>تعتبر إجازة منتصف العام الدراسي في السعودية من اللحظات المهمة التي تعكس مدى أهمية التوازن بين الدراسة والراحة.</t>
+  </si>
+  <si>
+    <t>التحضير لإجازة منتصف العام يتطلب من الطلاب الاستعداد بشكل جيد للاختبارات النهائية والتأكد من الانتهاء من كافة المهام الدراسية.</t>
+  </si>
+  <si>
+    <t>في ختام إجازة منتصف العام، يعود الطلاب بحماس أكبر إلى الدراسة ويكونون مستعدين لمواجهة التحديات القادمة في الفصل الدراسي الثاني.</t>
+  </si>
+  <si>
+    <t>https://datehijri.com/mid-year-holiday-2025.html</t>
+  </si>
+  <si>
+    <t>موعد إجازة منتصف العام الدراسي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_بداية_الدراسة_بعد_إجازة_منتصف_العام_الدراسي</t>
+  </si>
+  <si>
+    <t>تعتبر بداية الدراسة بعد إجازة منتصف العام الدراسي في السعودية 2025 فترة حيوية حيث يعود الطلاب إلى مقاعد الدراسة بعد استراحة ممتدة. في 22 فبراير 2025، يعود الطلاب لاستئناف دراستهم بحماس ونشاط بعد إجازة منحتهم الفرصة للاسترخاء وتجديد النشاط. يتطلع الجميع لمعرفة "كم باقي على بداية الدراسة؟" خاصةً الطلاب الذين كانوا مشغولين بالأنشطة الترفيهية خلال الإجازة. العودة إلى المدرسة تعني أيضاً استعادة الروتين اليومي والالتزام بالدراسة.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبداية الدراسة</t>
+  </si>
+  <si>
+    <t>بداية الدراسة بعد إجازة منتصف العام الدراسي هو حدث ينتظره الطلاب وأولياء الأمور على حد سواء.</t>
+  </si>
+  <si>
+    <t>تمثل بداية الدراسة بعد الإجازة أهمية كبيرة في تحقيق النجاح الأكاديمي للطلاب.</t>
+  </si>
+  <si>
+    <t>يجب على الطلاب الاستعداد جيدا للعودة إلى الدراسة من خلال تنظيم وقتهم وتحديد أولوياتهم الأكاديمية.</t>
+  </si>
+  <si>
+    <t>في نهاية المطاف، تعود الحياة الدراسية لطبيعتها ويبدأ الطلاب في استعادة تركيزهم على دراستهم وتحقيق أهدافهم الأكاديمية.</t>
+  </si>
+  <si>
+    <t>https://datehijri.com/back-to-school-2025.html</t>
+  </si>
+  <si>
+    <t>موعد بداية الدراسة بعد إجازة منتصف العام الدراسي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_نهاية_الفصل_الدراسي_الثاني_في_السعودية</t>
+  </si>
+  <si>
+    <t>2025-02-20T00:00:00</t>
+  </si>
+  <si>
+    <t>تمثل نهاية الفصل الدراسي الثاني في السعودية 2025 محطة مهمة في مسيرة الطلاب التعليمية. في 20 فبراير 2025، ينتهي الفصل الدراسي الثاني، مما يمنح الطلاب فرصة للتقييم والتفكير في ما حققوه خلال هذه الفترة. تتزايد التساؤلات حول "كم باقي على نهاية الفصل الدراسي الثاني؟" حيث يبدأ الطلاب في مراجعة دروسهم والتحضير للاختبارات النهائية. يعتبر هذا الوقت فرصة لتحديد الأهداف وتحسين الأداء الأكاديمي.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لنهاية الفصل الدراسي الثاني</t>
+  </si>
+  <si>
+    <t>نهاية الفصل الدراسي الثاني تعد بمثابة اختتام لفترة تعليمية هامة.</t>
+  </si>
+  <si>
+    <t>هذه الفترة تعكس أهمية التعلم والتقييم المستمر.</t>
+  </si>
+  <si>
+    <t>التحضير لنهاية الفصل الدراسي الثاني يتطلب من الطلاب تنظيم وقتهم بشكل فعال والتأكد من مراجعة كافة المواد الدراسية.</t>
+  </si>
+  <si>
+    <t>في النهاية، تتيح هذه اللحظة للطلاب فرصة للاحتفال بإنجازاتهم ومواصلة مسيرتهم التعليمية.</t>
+  </si>
+  <si>
+    <t>https://datehijri.com/end-of-semester-2025.html</t>
+  </si>
+  <si>
+    <t>موعد نهاية الفصل الدراسي الثاني في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_إجازة_الشتاء_في_السعودية</t>
+  </si>
+  <si>
+    <t>2025-02-24T00:00:00</t>
+  </si>
+  <si>
+    <t>إجازة الشتاء في السعودية 2025 تأتي بعد فترة من الدراسة المتواصلة، حيث تبدأ في 24 فبراير 2025. تمثل هذه الإجازة فرصة رائعة للطلاب للاسترخاء والاستمتاع بوقت فراغهم بعد نهاية الفصل الدراسي الثاني. الكل يتساءل "كم باقي على إجازة الشتاء؟" ويعد التحضير لهذه الفترة من أهم الخطوات التي يقوم بها الطلاب وعائلاتهم. الأنشطة الترفيهية والسفر والاستجمام تكون عادةً جزءًا من هذه الإجازة.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لإجازة الشتاء</t>
+  </si>
+  <si>
+    <t>إجازة الشتاء تعكس أهمية التوازن بين الدراسة والترفيه.</t>
+  </si>
+  <si>
+    <t>تحتاج العائلات إلى التخطيط لأنشطة ممتعة ومفيدة خلال إجازة الشتاء.</t>
+  </si>
+  <si>
+    <t>يجب على الطلاب الاستفادة من هذه الفترة لإعادة شحن طاقتهم وتخطيط للفصل الدراسي التالي.</t>
+  </si>
+  <si>
+    <t>في نهاية المطاف، تعود الطلاب بحيوية ونشاط أكبر لمواجهة تحديات الدراسة القادمة.</t>
+  </si>
+  <si>
+    <t>https://datehijri.com/winter-holiday-2025.html</t>
+  </si>
+  <si>
+    <t>موعد إجازة الشتاء في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_بداية_الدراسة_للفصل_الدراسي_الثالث_في_السعودية</t>
+  </si>
+  <si>
+    <t>2025-03-02T00:00:00</t>
+  </si>
+  <si>
+    <t>بداية الدراسة للفصل الدراسي الثالث في السعودية 2025 تمثل بداية جديدة وتحديات جديدة للطلاب. في 2 مارس 2025، يعود الطلاب إلى المدرسة لاستئناف دراستهم بعد انتهاء إجازة الشتاء. تكثر التساؤلات عن "كم باقي على بداية الدراسة للفصل الدراسي الثالث؟"، مما يدل على حماس الطلاب واهتمامهم بالتعلم. يعتبر هذا الفصل فرصة للطلاب لتحقيق أهدافهم الدراسية وتطوير مهاراتهم.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبداية الفصل الدراسي الثالث</t>
+  </si>
+  <si>
+    <t>بداية الفصل الدراسي الثالث فرصة جديدة للطلاب لتحقيق النجاح.</t>
+  </si>
+  <si>
+    <t>يحتاج الطلاب إلى الاستعداد جيدًا من خلال وضع خطط دراسية مناسبة.</t>
+  </si>
+  <si>
+    <t>ينبغي أن يتأكد الطلاب من مراجعة المواد السابقة والتخطيط لمستقبلهم الأكاديمي.</t>
+  </si>
+  <si>
+    <t>في النهاية، يمثل الفصل الدراسي الثالث مرحلة جديدة نحو تحقيق الأهداف الأكاديمية.</t>
+  </si>
+  <si>
+    <t>https://datehijri.com/start-third-semester-2025.html</t>
+  </si>
+  <si>
+    <t>موعد بداية الدراسة للفصل الدراسي الثالث في السعودية 2025</t>
+  </si>
+  <si>
+    <t>winter.webp</t>
+  </si>
+  <si>
+    <t>holiday-saudi.webp</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم الوطني السعودي 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على يوم التأسيس السعودي 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على  إجازة منتصف العام الدراسي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على نهاية الفصل الدراسي الثاني في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على إجازة الشتاء في السعودية 2025</t>
+  </si>
+  <si>
+    <t>back-to-school-sa.webp</t>
+  </si>
+  <si>
+    <t>من خلال العد التنازلي لليوم الوطني السعودي، يمكنكم معرفة كم باقي يوم على اليوم الوطني السعودي بكل سهولة.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على يوم التأسيس السعودي 2025، حيث يمكنكم معرفة موعد يوم التأسيس ومتى يبدأ. كما يمكنكم معرفة العد التنازلي ليوم التأسيس في السعودية من خلال هذا الموقع. يمثل هذا اليوم بداية وحدة شبه الجزيرة العربية ورمزًا للتاريخ العريق.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على إجازة منتصف العام الدراسي في السعودية 2025، حيث يمكنكم معرفة موعد الإجازة ومتى تبدأ. كما يمكنكم معرفة العد التنازلي لإجازة منتصف العام الدراسي في السعودية من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على بداية الدراسة بعد إجازة منتصف العام الدراسي في السعودية، حيث يمكنكم معرفة موعد بداية الدراسة ومتى تبدأ. كما يمكنكم معرفة العد التنازلي لبداية الدراسة بعد الإجازة من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على نهاية الفصل الدراسي الثاني في السعودية، حيث يمكنكم معرفة موعد نهاية الفصل ومتى تبدأ. كما يمكنكم معرفة العد التنازلي لنهاية الفصل الدراسي الثاني في السعودية من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على إجازة الشتاء في السعودية 2025، حيث يمكنكم معرفة موعد الإجازة ومتى تبدأ. كما يمكنكم معرفة العد التنازلي لإجازة الشتاء في السعودية من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على بداية الفصل الدراسي الثالث في السعودية 2025، حيث يمكنكم معرفة موعد بداية الفصل ومتى يبدأ. كما يمكنكم معرفة العد التنازلي لبداية الفصل الدراسي الثالث في السعودية من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>اليوم الوطني السعودي 2025، كم باقي على اليوم الوطني، موعد اليوم الوطني السعودي، العد التنازلي لليوم الوطني السعودي، توحيد المملكة، الملك عبدالعزيز، عروض وطنية، احتفالات، علم السعودية، تطور المملكة، 23 سبتمبر، رمز الوحدة، الفخر الوطني.</t>
+  </si>
+  <si>
+    <t>يوم التأسيس السعودي 2025، كم باقي على يوم التأسيس، موعد يوم التأسيس السعودي، العد التنازلي ليوم التأسيس السعودي، الدولة السعودية الأولى، الإمام محمد بن سعود، الدرعية، تاريخ المملكة، إرث تاريخي، 22 فبراير، الهوية الوطنية، الفخر بالتاريخ.</t>
+  </si>
+  <si>
+    <t>إجازة منتصف العام الدراسي، كم باقي على إجازة منتصف العام الدراسي، موعد إجازة منتصف العام الدراسي، العد التنازلي لإجازة منتصف العام الدراسي، أهمية الإجازة، تجديد النشاط، الأنشطة الترفيهية، العودة إلى الدراسة.</t>
+  </si>
+  <si>
+    <t>بداية الدراسة، كم باقي على بداية الدراسة، موعد بداية الدراسة، العد التنازلي لبداية الدراسة، العودة إلى المدرسة، النشاط، الروتين اليومي، التعليم.</t>
+  </si>
+  <si>
+    <t>نهاية الفصل الدراسي الثاني، كم باقي على نهاية الفصل الدراسي الثاني، موعد نهاية الفصل الدراسي الثاني، العد التنازلي لنهاية الفصل الدراسي الثاني، الاختبارات، التحضير، التعلم، النجاح الأكاديمي.</t>
+  </si>
+  <si>
+    <t>إجازة الشتاء، كم باقي على إجازة الشتاء، موعد إجازة الشتاء، العد التنازلي لإجازة الشتاء، الأنشطة الترفيهية، السفر، الاستجمام، أهمية التوازن.</t>
+  </si>
+  <si>
+    <t>بداية الفصل الدراسي الثالث، كم باقي على بداية الفصل الدراسي الثالث، موعد بداية الفصل الدراسي الثالث، العد التنازلي لبداية الفصل الدراسي الثالث، العودة إلى الدراسة، الفرص، التحضير، النجاح الأكاديمي.</t>
+  </si>
+  <si>
+    <t>كم باقي عل الفصل الدراسي الثالث في السعودية 2025</t>
+  </si>
+  <si>
+    <t>2025-03-27T00:00:00</t>
+  </si>
+  <si>
+    <t>العد التنازلي ليوم مبادرة السعودية الخضراء</t>
+  </si>
+  <si>
+    <t>كم باقي على يوم مبادرة السعودية الخضراء 2025</t>
+  </si>
+  <si>
+    <t>saudi-green-initiative.webp</t>
+  </si>
+  <si>
+    <t>يوم مبادرة السعودية الخضراء 2025 في السعودية هو حدث هام يأتي ضمن جهود المملكة لتعزيز الوعي البيئي والمحافظة على البيئة من أجل مستقبل أكثر استدامة. يُنظم هذا اليوم في 27 مارس، ويُعد جزءًا من رؤية السعودية 2030 التي تهدف إلى تحقيق تنمية مستدامة. الكثيرون يتساءلون "كم باقي على يوم مبادرة السعودية الخضراء؟"، حيث يزداد الاهتمام مع اقتراب العد التنازلي للاحتفال الذي يُركز على تقديم الحلول البيئية وتحفيز المبادرات التي تساهم في الحفاظ على البيئة. يمكنكم معرفة المزيد حول موعد ومتى يبدأ هذا اليوم من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>يوم مبادرة السعودية الخضراء 2025 في السعودية هو احتفال سنوي يُنظم لرفع الوعي حول القضايا البيئية وتفعيل المبادرات الخضراء. يهدف الحدث إلى تعزيز الاستدامة البيئية من خلال تقليل الانبعاثات الكربونية، التشجير، والمحافظة على التنوع البيئي.</t>
+  </si>
+  <si>
+    <t>يعتبر يوم مبادرة السعودية الخضراء 2025 حدثًا بارزًا ضمن رؤية المملكة 2030، حيث يعزز هذا اليوم التوعية بأهمية الاستدامة البيئية وتأثيرها الإيجابي على الحياة اليومية. إنها فرصة مثالية للجميع للمشاركة في الأنشطة البيئية وتعزيز المسؤولية الاجتماعية، مما يسهم في بناء مجتمع أكثر وعيًا بالبيئة.</t>
+  </si>
+  <si>
+    <t>الاستعدادات ليوم مبادرة السعودية الخضراء تشمل التخطيط لمجموعة من الأنشطة الخضراء مثل التشجير، حملات النظافة، وتوعية المجتمع بأهمية الاستدامة. يبدأ التحضير لهذا اليوم مبكرًا لضمان مشاركة أوسع ودعم الجهود المبذولة لتحقيق الأهداف البيئية.</t>
+  </si>
+  <si>
+    <t>الاحتفال بيوم مبادرة السعودية الخضراء يعزز الروح الجماعية للمشاركة في العمل البيئي. إنه يُعيد التأكيد على التزام المملكة بتحقيق التنمية المستدامة وحماية البيئة للأجيال القادمة. العد التنازلي لهذا اليوم يثير الحماس ويجعل الجميع يتطلعون للمشاركة في الأنشطة التي تهدف إلى تحقيق التحول البيئي.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على يوم مبادرة السعودية الخضراء 2025 في السعودية، حيث يمكنكم معرفة موعد هذا اليوم ومتى يبدأ. كما يمكنكم متابعة العد التنازلي ليوم مبادرة السعودية الخضراء 2025 في السعودية من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>يوم مبادرة السعودية الخضراء، كم باقي، متى موعد يوم مبادرة السعودية الخضراء، العد التنازلي، الاستدامة، حماية البيئة، رؤية 2030</t>
+  </si>
+  <si>
+    <t>https://www.greeninitiatives.gov.sa/ar-sa/about-sgi/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saudi &amp; Middle East Green Initiatives</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_يوم_مبادرة_السعودية_الخضراء</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_عيد_الأم_في_السعودية</t>
+  </si>
+  <si>
+    <t>2025-03-21T00:00:00</t>
+  </si>
+  <si>
+    <t>عيد الأم في السعودية هو مناسبة مميزة يُحتفل بها في 21 مارس من كل عام، حيث يتم تكريم الأمهات على تضحياتهن ودورهن الكبير في الأسرة والمجتمع. ينتظر الكثيرون "كم باقي على عيد الأم؟" لتقديم الهدايا والتعبير عن مشاعر الحب والتقدير. العد التنازلي لهذا اليوم يُظهر الحماس والترقب للاحتفال بالأم، ويُعتبر فرصة لتذكير الجميع بفضل الأم وتضحياتها الكبيرة من أجل الأبناء. يمكنكم معرفة موعد عيد الأم ومتى يبدأ في السعودية من خلال هذا الموقع الذي يوفر لكم أيضًا العد التنازلي لعيد الأم.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لعيد الأم</t>
+  </si>
+  <si>
+    <t>عيد الأم في السعودية هو يوم عالمي للاحتفال بالأمهات، حيث يتم تقدير جهودهن في التربية والعناية. يُعد هذا اليوم مناسبة مهمة لتكريم الأمهات ودورهن الأساسي في المجتمع، حيث يشعر الجميع بالامتنان والاحتفال بحب الأم.</t>
+  </si>
+  <si>
+    <t>يتمتع عيد الأم بأهمية كبيرة في السعودية، فهو يُعزز الروابط العائلية ويُظهر الامتنان للأمهات على دورهن الكبير. يُعتبر هذا اليوم فرصة للتعبير عن التقدير والحب من خلال تقديم الهدايا وإعداد الاحتفالات الخاصة بالأمهات.</t>
+  </si>
+  <si>
+    <t>التحضير لعيد الأم في السعودية يشمل التخطيط لتقديم الهدايا للأمهات، وتحضير الأطعمة المفضلة، وتنظيم الاحتفالات العائلية. كما يُمكن تنظيم فعاليات مدرسية تشجع الأطفال على تقديم التهاني لأمهاتهم من خلال الأنشطة الإبداعية.</t>
+  </si>
+  <si>
+    <t>يُعتبر عيد الأم فرصة سنوية للاحتفال بالأم وتعزيز الروابط الأسرية. العد التنازلي لهذا اليوم يزيد من الحماس والتوقعات، ويُساعد على تذكير الجميع بأهمية دور الأم في حياتهم. في النهاية، يُعد عيد الأم يومًا خاصًا للجميع لإظهار الحب والتقدير للأمهات.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على عيد الأم في السعودية، ومعرفة متى يبدأ عيد الأم. كما يوفر الموقع العد التنازلي لعيد الأم في السعودية لمعرفة موعد الاحتفال بشكل دقيق.</t>
+  </si>
+  <si>
+    <t>عيد الأم، كم باقي، متى موعد عيد الأم، العد التنازلي، الاحتفالات، الحب، العائلة</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_عيد_المعلم_في_السعودية</t>
+  </si>
+  <si>
+    <t>2025-10-05T00:00:00</t>
+  </si>
+  <si>
+    <t>عيد المعلم في السعودية هو مناسبة للاحتفاء بدور المعلمين وجهودهم في تعليم الأجيال. يُحتفل بهذا اليوم في 5 أكتوبر من كل عام، حيث يُظهر المجتمع التقدير لمعلميهم ويُثني على تأثيرهم الإيجابي في مسيرة التعليم. الكثيرون يتساءلون "كم باقي على عيد المعلم؟"، حيث يُبرز العد التنازلي لهذا اليوم الاهتمام بالتحضير لتقديم الشكر والتقدير للمعلمين. يُمكنكم معرفة موعد عيد المعلم ومتى يبدأ في السعودية من خلال هذا الموقع الذي يعرض أيضًا العد التنازلي لعيد المعلم.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لعيد المعلم</t>
+  </si>
+  <si>
+    <t>عيد المعلم في السعودية هو يوم يُكرس للاحتفاء بالمعلمين وتقدير جهودهم في تطوير التعليم وتشكيل مستقبل الأجيال. يُعد هذا اليوم فرصة للجميع للتعبير عن الشكر والاعتراف بأهمية دور المعلم في حياتهم.</t>
+  </si>
+  <si>
+    <t>يمثل عيد المعلم مناسبة هامة في السعودية، حيث يُسلط الضوء على دور المعلمين في بناء المجتمع وتعزيز التعليم. يُعتبر هذا اليوم فرصة للاحتفال بتأثير المعلمين وجهودهم المتواصلة في تربية وتعليم الأجيال الصاعدة.</t>
+  </si>
+  <si>
+    <t>التحضير لعيد المعلم في السعودية يشمل تنظيم فعاليات مدرسية وشكر المعلمين من خلال تقديم الهدايا والتهاني. يمكن أن تشمل الأنشطة الطلابية تنظيم عروض تعبر عن الامتنان للمعلمين، بالإضافة إلى تزيين الفصول الدراسية والاحتفال في المدارس.</t>
+  </si>
+  <si>
+    <t>الاحتفال بعيد المعلم يُعزز من تقدير المعلمين ويدعم مكانتهم في المجتمع. العد التنازلي لهذا اليوم يُساهم في زيادة الوعي بدور المعلم وأهمية تقديرهم. في نهاية المطاف، يُعتبر عيد المعلم فرصة مثالية لتعزيز العلاقة بين الطلاب والمعلمين وإظهار الامتنان لمجهوداتهم.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على عيد المعلم في السعودية، ومعرفة موعد عيد المعلم ومتى يبدأ. كما يوفر الموقع العد التنازلي لعيد المعلم في السعودية لمعرفة موعد الاحتفال وتقدير المعلمين بشكل دقيق.</t>
+  </si>
+  <si>
+    <t>عيد المعلم، كم باقي، متى موعد عيد المعلم، العد التنازلي، التعليم، الاحتفالات، تقدير المعلمين</t>
+  </si>
+  <si>
+    <t>mother-day.webp</t>
+  </si>
+  <si>
+    <t>teacher-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_بلاك_فرايدي_في_السعودية</t>
+  </si>
+  <si>
+    <t>2024-11-29T00:00:00</t>
+  </si>
+  <si>
+    <t>بلاك فرايدي هو واحد من أكثر الأيام انتظارًا في السعودية، حيث يمثل فرصة رائعة للحصول على خصومات هائلة على مجموعة واسعة من المنتجات. يبدأ العد التنازلي لبلاك فرايدي في 29 نوفمبر من كل عام، ويعد هذا اليوم مثالياً للمتسوقين الذين يرغبون في شراء الهدايا أو المنتجات الشخصية بأسعار مخفضة. يتساءل الجميع “كم باقي على بلاك فرايدي؟” حيث تزداد الحماسة مع اقتراب هذا اليوم المنتظر.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبلاك فرايدي</t>
+  </si>
+  <si>
+    <t>بلاك فرايدي هو يوم التسوق الذي يُقام في نهاية نوفمبر ويشهد خصومات كبيرة على العديد من المنتجات. يتميز بإقبال الناس على الشراء، حيث تتنافس المتاجر في تقديم أفضل العروض.</t>
+  </si>
+  <si>
+    <t>أهمية بلاك فرايدي تكمن في تقديم الفرصة للمتسوقين للحصول على منتجات عالية الجودة بأسعار معقولة، مما يجعله فرصة مثالية لتجديد الأغراض المنزلية أو شراء هدايا للعيد. هذا اليوم يعكس أيضًا اتجاهات التسوق الحديثة ويعزز الاقتصاد المحلي.</t>
+  </si>
+  <si>
+    <t>الاستعدادات لبلاك فرايدي تشمل البحث عن أفضل العروض والإعلانات، والتخطيط المسبق للشراء، والتأكد من توفير ميزانية مناسبة لهذا اليوم. يبدأ العد التنازلي لمبيعات بلاك فرايدي قبل أسابيع، مما يشجع المتسوقين على التخطيط مبكرًا للاستفادة من الخصومات. يجب على المتسوقين أيضًا متابعة المواقع الإلكترونية للمتاجر المفضلة لمتابعة أفضل العروض.</t>
+  </si>
+  <si>
+    <t>في النهاية، يوفر بلاك فرايدي فرصة رائعة للحصول على صفقات مذهلة، ويضيف جوًا من الحماس والترقب في المجتمع. تضمن التخطيط الجيد والاستعداد أن تكون تجربة التسوق ممتعة وفعّالة، مما يجعل الجميع ينتظرون هذا اليوم بشغف.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على بلاك فرايدي في السعودية، حيث يمكنكم معرفة موعد بلاك فرايدي ومتى يبدأ. كما يمكنكم معرفة العد التنازلي لبلاك فرايدي في السعودية من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>بلاك فرايدي، كم باقي، متى موعد بلاك فرايدي، العد التنازلي، التسوق، الخصومات، العروض</t>
+  </si>
+  <si>
+    <t>black-friday.webp</t>
+  </si>
+  <si>
+    <t>معارف</t>
+  </si>
+  <si>
+    <t>https://www.m3aarf.com/countdown/momday</t>
+  </si>
+  <si>
+    <t>https://www.twinkl.co.uk/event/alywm-alalmy-lltlym-international-day-of-education-2025</t>
+  </si>
+  <si>
+    <t>توينكل</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AC%D9%85%D8%B9%D8%A9_%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D8%A1</t>
+  </si>
+  <si>
+    <t>ويكيبيديا</t>
+  </si>
+  <si>
+    <t>https://moe.gov.sa/ar/education/generaleducation/Pages/academicCalendar.aspx</t>
+  </si>
+  <si>
+    <t>وزارة التعليم</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_بدء_المدرسة_في_السعودية</t>
+  </si>
+  <si>
+    <t>2025-08-24T00:00:00</t>
+  </si>
+  <si>
+    <t>بدء المدرسة هو مناسبة مهمة ينتظرها الطلاب وأولياء الأمور في السعودية بفارغ الصبر، حيث يمثل بداية عام دراسي جديد مليء بالتحديات والفرص. يبدأ العد التنازلي لبداية المدرسة في 24 أغسطس 2025، ويتطلع الجميع لمعرفة “كم باقي على بدء المدرسة؟” مع اقتراب هذا اليوم، الذي يفتح آفاقًا جديدة للعلم والتعلم. التحضيرات تبدأ منذ وقت مبكر، حيث يتجهز الطلاب بالكتب والقرطاسية والزي المدرسي، مما يضفي جوًا من الحماس والتفاؤل.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبداية المدرسة</t>
+  </si>
+  <si>
+    <t>بدء المدرسة هو الحدث الذي يمثل عودة الطلاب إلى مقاعد الدراسة بعد العطلة الصيفية. إنه يوم مميز يتم فيه استئناف التعلم والتفاعل الاجتماعي بين الطلاب والمعلمين.</t>
+  </si>
+  <si>
+    <t>أهمية بدء المدرسة تكمن في أنه يشكل بداية جديدة للطلاب، حيث يمكنهم اكتساب مهارات جديدة وتعزيز معارفهم. إنه فرصة للطلاب لتحديد أهدافهم الدراسية والاجتماعية للعام الجديد، مما يعزز من روح المنافسة والتعاون.</t>
+  </si>
+  <si>
+    <t>التحضيرات لبداية المدرسة تشمل شراء المستلزمات الدراسية، والتأكد من جاهزية الأطفال نفسيًا واجتماعيًا للعودة إلى المدرسة. يبدأ الآباء بالتخطيط لهذه التحضيرات قبل أسابيع من بدء المدرسة، ويشمل ذلك تنظيم مواعيد لتجهيز الملابس المدرسية وتجميع الأدوات المدرسية اللازمة. تتزايد الأسئلة عن موعد بدء المدرسة بشكل ملحوظ بين الأطفال وأولياء الأمور مع اقتراب العد التنازلي.</t>
+  </si>
+  <si>
+    <t>في النهاية، يمثل بدء المدرسة فرصة رائعة للطلاب لتجديد طاقاتهم وتوسيع آفاقهم. يوفر هذا اليوم فرصة للتفاعل مع الأصدقاء والمعلمين، مما يعزز الروح الاجتماعية. العد التنازلي لهذا اليوم يجعل الجميع متحمسًا، ويُشجع الطلاب على بدء رحلة جديدة من التعلم.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على بدء المدرسة في السعودية، حيث يمكنكم معرفة موعد بدء المدرسة ومتى يبدأ. كما يمكنكم معرفة العد التنازلي لبداية المدرسة في السعودية من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>بدء المدرسة، كم باقي، متى موعد بدء المدرسة، العد التنازلي، التعليم، العودة إلى المدرسة</t>
+  </si>
+  <si>
+    <t>كم باقي على منتصف العام الدراسي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على عيد الأم في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على عيد المعلم في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على بلاك فرايدي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على بدء المدرسة في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم باقي على المعرض التجاري السعودي للبلاستيك والبتروكيماويات 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_التجاري_السعودي_2025</t>
+  </si>
+  <si>
+    <t>2025-05-15T00:00:00</t>
+  </si>
+  <si>
+    <t>يعد المعرض التجاري السعودي للبلاستيك والبتروكيماويات حدثًا بارزًا في عالم التجارة والصناعة، حيث يجتمع فيه المهنيون والمستثمرون من جميع أنحاء العالم. ينعقد هذا المعرض من 12 إلى 15 مايو 2025، ومن المتوقع أن يحضره عدد كبير من الزوار المهتمين بالتكنولوجيا الحديثة والابتكارات في مجال البلاستيك والبتروكيماويات. يطرح الجميع سؤالًا شائعًا: "كم باقي على المعرض التجاري؟" حيث يظهر العد التنازلي بشكل واضح، مما يثير الحماس لدى المشاركين.</t>
+  </si>
+  <si>
+    <t>المعرض التجاري السعودي للبلاستيك والبتروكيماويات هو منصة مثالية لتبادل الأفكار والتوجهات الحديثة في الصناعة. إنه يجمع بين الشركات الرائدة والمستثمرين للتعرف على أحدث التطورات.</t>
+  </si>
+  <si>
+    <t>يُعتبر المعرض حدثًا مهمًا لتعزيز العلاقات التجارية وبناء شراكات جديدة. كما يمثل فرصة للشركات للاطلاع على أحدث الابتكارات والاتجاهات في الصناعة، مما يعزز من المنافسة والنمو.</t>
+  </si>
+  <si>
+    <t>تبدأ التحضيرات لهذا الحدث قبل أسابيع، حيث يقوم المشاركون بتجهيز منتجاتهم واستراتيجياتهم التسويقية. يعد تنظيم الجناحات وعرض المنتجات جزءًا أساسيًا من التحضيرات، مع العمل على ترويج فعال للحدث عبر وسائل الإعلام ووسائل التواصل الاجتماعي. يتزايد الاهتمام بـ "متى يبدأ المعرض التجاري؟" مع اقتراب الحدث.</t>
+  </si>
+  <si>
+    <t>يوفر المعرض التجاري فرصة فريدة للتواصل مع مهنيين آخرين وتبادل المعرفة والخبرات. يعد العد التنازلي للمعرض أحد أبرز الجوانب التي تجعل الجميع متحمسًا للمشاركة في هذا الحدث التجاري المهم.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على المعرض التجاري السعودي للبلاستيك والبتروكيماويات 2025، حيث يمكنكم معرفة موعد المعرض ومتى يبدأ. كما يمكنكم معرفة العد التنازلي للمعرض من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>المعرض، البلاستيك، البتروكيماويات، كم باقي، العد التنازلي، الصناعة، التجارة</t>
+  </si>
+  <si>
+    <t>كم باقي على المعرض والمؤتمر التجاري للأمن والسلامة – إنترسيك 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_الأمني_السعودي_2025</t>
+  </si>
+  <si>
+    <t>2025-01-16T00:00:00</t>
+  </si>
+  <si>
+    <t>يمثل المعرض والمؤتمر التجاري للأمن والسلامة - إنترسيك 2025 حدثًا رائدًا يجمع بين المهنيين والشركات الرائدة في مجال الأمن والسلامة. ينعقد هذا الحدث في الفترة من 14 إلى 16 يناير 2025، حيث يتطلع الجميع إلى معرفة "كم باقي على إنترسيك؟" مع وجود العد التنازلي الذي يضفي طابعًا من الحماس والترقب على هذا المؤتمر.</t>
+  </si>
+  <si>
+    <t>إنترسيك هو منصة عالمية تركز على جميع جوانب الأمن والسلامة، بما في ذلك التكنولوجيا والابتكارات الحديثة. يجمع الحدث خبراء الصناعة والمبتكرين لتبادل المعرفة والخبرات.</t>
+  </si>
+  <si>
+    <t>يعد هذا المعرض فرصة للمهنيين للتواصل، مما يعزز من تبادل المعلومات والأفكار حول الحلول الأمنية المتقدمة. يعتبر المعرض منصة مهمة لاستكشاف الاتجاهات المستقبلية في قطاع الأمن والسلامة.</t>
+  </si>
+  <si>
+    <t>تبدأ التحضيرات للمعرض قبل أشهر، حيث يتم تجهيز العروض التقديمية والمنتجات الجديدة، إلى جانب الترويج للحدث عبر منصات مختلفة. يتمحور الحديث بين المشاركين حول "متى يبدأ إنترسيك؟" مع اقتراب العد التنازلي للمعرض.</t>
+  </si>
+  <si>
+    <t>إنترسيك يوفر فرصة كبيرة للتعلم والتفاعل مع قادة الصناعة. يسهم العد التنازلي في زيادة الترقب، مما يجعل الجميع مستعدًا للانخراط في المناقشات والفعاليات التي تقدم حلولاً أمنية مبتكرة.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على المعرض والمؤتمر التجاري للأمن والسلامة - إنترسيك 2025، حيث يمكنكم معرفة موعد المعرض ومتى يبدأ. كما يمكنكم معرفة العد التنازلي لهذا المعرض من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>إنترسيك، الأمن، السلامة، كم باقي، العد التنازلي، التكنولوجيا، الابتكارات</t>
+  </si>
+  <si>
+    <t>كم باقي على المعرض السعودي الدولي الرابع للصيدلة 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_معرض_الصيدلة_السعودي_2025</t>
+  </si>
+  <si>
+    <t>2025-09-24T00:00:00</t>
+  </si>
+  <si>
+    <t>يعتبر المعرض السعودي الدولي الرابع للصيدلة حدثًا هامًا في مجال الصيدلة والطب، حيث يجمع بين شركات الأدوية، والممارسين الطبيين، والمهنيين في هذا القطاع. يُعقد المعرض من 22 إلى 24 سبتمبر 2025، ويتساءل الكثيرون عن "كم باقي على معرض الصيدلة؟" مع العد التنازلي الذي يجعل الجميع متحمسًا لهذا الحدث.</t>
+  </si>
+  <si>
+    <t>هذا المعرض يركز على التوجهات الحديثة في صناعة الأدوية ويجمع بين مختلف الفئات من العاملين في القطاع الصحي. إن فرصة التواصل بين المهنيين تُعتبر قيمة جدًا.</t>
+  </si>
+  <si>
+    <t>إن المعرض يمثل فرصة لتبادل الأفكار والحلول الجديدة في صناعة الأدوية، مما يسهم في تحسين جودة الرعاية الصحية. إن تواجد المهنيين في هذا المعرض يساعد في تعزيز التعاون بين المؤسسات.</t>
+  </si>
+  <si>
+    <t>التحضيرات للمعرض تبدأ قبل فترة طويلة، حيث يتم تجهيز الأجنحة والمحتوى التقديمي. يتزايد الحديث بين المهنيين عن "متى يبدأ معرض الصيدلة؟" مع اقتراب العد التنازلي لهذا الحدث المهم.</t>
+  </si>
+  <si>
+    <t>يعزز المعرض من تواصل المهنيين ويتيح لهم فرصة الاطلاع على أحدث الابتكارات في مجال الصيدلة. العد التنازلي يُضفي جوًا من الحماس والترقب، مما يجعل الجميع مستعدًا للمشاركة الفعالة في هذا الحدث.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على المعرض السعودي الدولي الرابع للصيدلة 2025، حيث يمكنكم معرفة موعد المعرض ومتى يبدأ. كما يمكنكم معرفة العد التنازلي لهذا المعرض من خلال هذا الموقع.</t>
+  </si>
+  <si>
+    <t>معرض الصيدلة، الأدوية، كم باقي، العد التنازلي، الطب، الصحة</t>
+  </si>
+  <si>
+    <t>عين الرياض</t>
+  </si>
+  <si>
+    <t>https://www.eyeofriyadh.com/ar/events/details/saudi-franchise-expo-2024-1713346203</t>
+  </si>
+  <si>
+    <t>كم باقي على المعرض السعودي الدولي للمختبرات 2025</t>
+  </si>
+  <si>
+    <t>lab-exhibition-saudi.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_السعودي_الدولي_للمختبرات_2025</t>
+  </si>
+  <si>
+    <t>2025-09-22T00:00:00</t>
+  </si>
+  <si>
+    <t>يعد المعرض السعودي الدولي للمختبرات حدثًا بارزًا في مجال العلوم والبحث، حيث يتطلع الكثيرون لمعرفة كم باقي على هذا الحدث المميز. سيتم تنظيم المعرض في الفترة من 22 إلى 24 سبتمبر 2025، وهو فرصة للمختصين لعرض أحدث الابتكارات والتقنيات في عالم المختبرات. العد التنازلي لهذا الحدث يجعل الجميع متحمسين للاكتشافات الجديدة التي سيقدمها.</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للمختبرات هو فرصة مثالية للمهتمين بمجال الأبحاث العلمية والتكنولوجيا الحديثة. سيجمع المعرض عددًا من الخبراء والشركات الرائدة في هذا المجال، مما يسهل تبادل الأفكار والتقنيات الحديثة.</t>
+  </si>
+  <si>
+    <t>يمثل المعرض منصة لعرض أحدث الابتكارات وتبادل المعرفة بين المتخصصين في المختبرات، مما يعزز من التطور العلمي والتقني في المملكة. المعرض سيكون محط أنظار الجميع، حيث يُعتبر حدثًا مهمًا في التقنيات الحديثة.</t>
+  </si>
+  <si>
+    <t>يحتاج التحضير للمعرض إلى وقت وجهد كبيرين، حيث يتعين على الشركات تجهيز عروضها والابتكارات الخاصة بها. العد التنازلي يعطي الفرصة للمتخصصين للتحضير بشكل جيد ويزيد من الحماس للحدث.</t>
+  </si>
+  <si>
+    <t>يجسد المعرض السعودي الدولي للمختبرات فرصة للتواصل والابتكار في مجال التكنولوجيا والعلوم. يعد الجميع بشغف بالمعرفة والابتكارات الجديدة. مع اقتراب المعرض، يزداد شغف الجميع لمعرفة آخر المستجدات.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على المعرض السعودي الدولي للمختبرات، حيث يمكنكم معرفة موعد المعرض ومتى يبدأ. كما يمكنكم معرفة العد التنازلي لهذا الحدث المميز.</t>
+  </si>
+  <si>
+    <t>المعرض، المختبرات، كم باقي، موعد المعرض، العد التنازلي، التكنولوجيا الحديثة</t>
+  </si>
+  <si>
+    <t>كم باقي على المعرض السعودي للصناعة الغذائية 2025</t>
+  </si>
+  <si>
+    <t>food-exhibition-saudi.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_السعودي_للصناعة_الغذائية_2025</t>
+  </si>
+  <si>
+    <t>2025-04-13T00:00:00</t>
+  </si>
+  <si>
+    <t>المعرض السعودي للصناعة الغذائية هو حدث مهم يجمع بين الشركات المتخصصة في المجال الغذائي. يتساءل الجميع كم باقي على هذا المعرض الذي يقام من 13 إلى 15 أبريل 2025. يعد هذا الحدث فرصة لتبادل الأفكار وعرض أحدث الابتكارات في عالم الصناعات الغذائية. العد التنازلي يضيف المزيد من الحماس للفعاليات القادمة.</t>
+  </si>
+  <si>
+    <t>المعرض يساهم في تطوير الصناعة الغذائية من خلال عرض آخر الابتكارات والمنتجات الجديدة. يتيح للزوار والمشاركين فرصة الاطلاع على أحدث الاتجاهات في هذا القطاع.</t>
+  </si>
+  <si>
+    <t>يمثل المعرض السعودي للصناعة الغذائية فرصة لتعزيز التعاون بين الشركات وتطوير السوق الغذائية في المملكة، مما يسهم في تحسين الجودة وزيادة التنوع في المنتجات.</t>
+  </si>
+  <si>
+    <t>التحضيرات للمعرض تشمل تجهيز المساحات الخاصة بالعروض، وتحضير الفرق الخاصة بالشركات، مما يتطلب تنظيمًا دقيقًا ووقتًا كافيًا للتحضير. العد التنازلي يساعد الجميع على تنظيم مشاركتهم بشكل أفضل.</t>
+  </si>
+  <si>
+    <t>المعرض يمثل نقطة انطلاق لعلاقات جديدة في صناعة الغذاء، حيث يجمع بين المستثمرين والموردين. التحضيرات تشمل تحضير الاستراتيجيات والعروض الفعالة.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على المعرض السعودي للصناعة الغذائية، حيث يمكنكم معرفة موعد المعرض ومتى يبدأ. كما يمكنكم معرفة العد التنازلي لهذا الحدث الهام.</t>
+  </si>
+  <si>
+    <t>المعرض، صناعة غذائية، كم باقي، موعد المعرض، العد التنازلي، ابتكارات جديدة</t>
+  </si>
+  <si>
+    <t>كم باقي على المعرض السعودي الدولي للإمتياز التجاري 2025</t>
+  </si>
+  <si>
+    <t>franchise-expo.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_السعودي_الدولي_للإمتياز_التجاري</t>
+  </si>
+  <si>
+    <t>2025-01-27T00:00:00</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للإمتياز التجاري هو حدث مميز يجمع بين رواد الأعمال والمستثمرين في 27 إلى 29 يناير 2025. يعد هذا المعرض فرصة رائعة للتعرف على أحدث الابتكارات والاتجاهات في مجال الامتياز التجاري. تتساءل دائماً "كم باقي على المعرض السعودي الدولي للإمتياز التجاري؟"، حيث يظهر العد التنازلي لكل من ينتظر هذا الحدث الكبير. تأكد من أنك مستعد لموعد المعرض وكن جزءًا من هذه التجربة المثيرة.</t>
+  </si>
+  <si>
+    <t>العد التنازلي للمعرض السعودي الدولي للإمتياز التجاري</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للإمتياز التجاري هو حدث يجمع بين العديد من المستثمرين والشركات في مكان واحد. يوفر فرصًا كبيرة للشراكات والتعاونات المستقبلية.</t>
+  </si>
+  <si>
+    <t>يعد المعرض السعودي الدولي للإمتياز التجاري من الفعاليات البارزة في السعودية، حيث يساهم في تعزيز الاقتصاد المحلي ويشجع على الابتكار في مجال الأعمال. إنه فرصة مثالية للتواصل مع الآخرين واكتساب المعرفة من خلال ورش العمل والمحاضرات.</t>
+  </si>
+  <si>
+    <t>يتطلب التحضير لهذا المعرض الكثير من التنظيم، بدءًا من حجز التذاكر والتخطيط للزيارة، إلى التحضير للاجتماعات مع المستثمرين ورجال الأعمال. العد التنازلي لهذا الحدث يعزز من أهمية التحضير الجيد لضمان الاستفادة القصوى من الفرص المتاحة.</t>
+  </si>
+  <si>
+    <t>في النهاية، يمثل المعرض السعودي الدولي للإمتياز التجاري فرصة رائعة للجميع للتواصل والتعلم والتطور. مع اقتراب موعد الحدث، يتزايد الحماس بين المشاركين. يمكنكم معرفة كم باقي على المعرض ومعرفة العد التنازلي للفعاليات القادمة من خلال موقعنا.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال موقعنا معرفة كم باقي على المعرض السعودي الدولي للإمتياز التجاري، كما يمكنكم متابعة العد التنازلي للاستعداد لهذا الحدث الفريد.</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للإمتياز التجاري، كم باقي، متى موعد المعرض، العد التنازلي، الفرص، الأعمال</t>
+  </si>
+  <si>
+    <t>كم باقي على المعرض السعودي الدولي للثروة السمكية 2025</t>
+  </si>
+  <si>
+    <t>fish-expo.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_السعودي_الدولي_للثروة_السمكية</t>
+  </si>
+  <si>
+    <t>2025-02-03T00:00:00</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للثروة السمكية هو حدث مهم يقام في 3 فبراير 2025، حيث يجمع هذا المعرض بين خبراء الصناعة والعاملين في مجال الثروة السمكية. الكثير من الأشخاص يتساءلون "كم باقي على المعرض السعودي الدولي للثروة السمكية؟"، حيث يتمثل العد التنازلي في إعطاء الزوار الفرصة للاستعداد لهذا الحدث الرائع. تعلم أكثر حول كيفية إدارة الثروة السمكية والحفاظ عليها من خلال الفعاليات والورش المتاحة في المعرض.</t>
+  </si>
+  <si>
+    <t>العد التنازلي للمعرض السعودي الدولي للثروة السمكية</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للثروة السمكية يعد من أبرز الفعاليات التي تركز على الابتكارات والتطورات في صناعة الثروة السمكية، مما يجعله حدثاً لا يُفوت.</t>
+  </si>
+  <si>
+    <t>يعد المعرض فرصة رائعة لمناقشة التحديات والفرص في صناعة الثروة السمكية، ويشجع على الاستدامة والابتكار. يحضر هذا الحدث العديد من المشاركين من مختلف البلدان، مما يعزز من تبادل الخبرات والمعرفة.</t>
+  </si>
+  <si>
+    <t>التحضير للمعرض يشمل التخطيط للزيارة، تنظيم التذاكر، والتواصل مع المتحدثين والمشاركين الآخرين. العد التنازلي للحدث يتيح للجميع الاستعداد بشكل جيد، سواء كانت تلك التحضيرات تتعلق بحضور الفعاليات أو المشاركة فيها.</t>
+  </si>
+  <si>
+    <t>في النهاية، يُعد المعرض السعودي الدولي للثروة السمكية منصة مهمة للجميع لمشاركة الأفكار والخبرات. مع اقتراب الموعد، ينمو الترقب حول الفعاليات والأنشطة المقامة. يمكنكم متابعة العد التنازلي للمعرض من خلال موقعنا لمعرفة متى سيحدث هذا الحدث.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال موقعنا معرفة كم باقي على المعرض السعودي الدولي للثروة السمكية، ومتى تبدأ الفعاليات المرتقبة.</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للثروة السمكية، كم باقي، متى موعد المعرض، العد التنازلي، الابتكارات، الصناعة السمكية</t>
+  </si>
+  <si>
+    <t>العد التنازلي للمعرض السعودي الدولي للمختبرات</t>
+  </si>
+  <si>
+    <t>العد التنازلي للمعرض السعودي للصناعة الغذائية</t>
+  </si>
+  <si>
+    <t>العد التنازلي للمعرض السعودي الدولي الرابع للصيدلة</t>
+  </si>
+  <si>
+    <t>العد التنازلي للمعرض المؤتمر التجاري للأمن والسلامة – إنترسيك</t>
+  </si>
+  <si>
+    <t>العد التنازلي للمعرض التجاري السعودي للبلاستيك والبتروكيماويات</t>
+  </si>
+  <si>
+    <t>كم باقي على معرض الأقمشة الرجالية والإكسسوارات 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_معرض_الأقمشة_الرجالية_والإكسسوارات_2025</t>
+  </si>
+  <si>
+    <t>2025-02-02T00:00:00</t>
+  </si>
+  <si>
+    <t>يعد معرض الأقمشة الرجالية والإكسسوارات 2025 حدثًا رئيسيًا في عالم الأزياء، حيث يجمع بين المصممين والمستثمرين وأصحاب العلامات التجارية. إن هذا المعرض يوفر فرصة مثالية لاستكشاف أحدث الاتجاهات والابتكارات في مجال الأقمشة والإكسسوارات. يتساءل الجميع "كم باقي على المعرض؟" مع العد التنازلي، مما يزيد من حماس المشاركين. يمكنكم معرفة موعد المعرض ومتى سيبدأ من خلال موقعنا.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لمعرض الأقمشة الرجالية والإكسسوارات 2025</t>
+  </si>
+  <si>
+    <t>يعتبر المعرض منصة هامة لمصممي الأزياء لتبادل الأفكار والابتكارات، مما يساهم في تطوير الصناعة.</t>
+  </si>
+  <si>
+    <t>يمثل أهمية كبيرة في تعزيز الإبداع والابتكار في مجال الأزياء، مما يدعم نمو سوق الأقمشة والإكسسوارات في المنطقة.</t>
+  </si>
+  <si>
+    <t>يتطلب التحضير للمعرض تجهيز العروض والمواد التسويقية بشكل احترافي. العد التنازلي للمعرض يضفي طابعًا من الحماس على المشاركين.</t>
+  </si>
+  <si>
+    <t>إن معرض الأقمشة الرجالية والإكسسوارات 2025 سيكون له تأثير إيجابي على صناعة الأزياء، حيث يجمع بين أحدث الابتكارات والاتجاهات. العد التنازلي يجعله أكثر إثارة للمصممين والمشاركين.</t>
+  </si>
+  <si>
+    <t>يمكنكم معرفة كم باقي على معرض الأقمشة الرجالية والإكسسوارات 2025 من خلال موقعنا، حيث يمكنكم معرفة موعد المعرض ومتى يبدأ. العد التنازلي لهذا الحدث سيجعل الجميع في حالة انتظار وحماس.</t>
+  </si>
+  <si>
+    <t>معرض الأقمشة، كم باقي، موعد المعرض، العد التنازلي، الفعاليات، الموضة، الابتكار</t>
+  </si>
+  <si>
+    <t>كم باقي على منتدى RLC العالمي لعام 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_منتدى_RLC_العالمي_لعام_2025</t>
+  </si>
+  <si>
+    <t>2025-02-04T00:00:00</t>
+  </si>
+  <si>
+    <t>يعد منتدى RLC العالمي 2025 منصة فريدة تجمع بين رواد الأعمال والمبتكرين من مختلف أنحاء العالم. سيكون هذا المنتدى فرصة قيمة لتبادل المعرفة والخبرات، والبحث عن فرص التعاون والتطوير. مع اقتراب الحدث، يتساءل الجميع "كم باقي على المنتدى؟" حيث يبدأ العد التنازلي للحدث الفريد. يمكنكم معرفة موعد المنتدى ومتى يبدأ من خلال موقعنا.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لمنتدى RLC العالمي لعام 2025</t>
+  </si>
+  <si>
+    <t>يمثل المنتدى فرصة لتطوير الأعمال وتبادل الأفكار بين الشركات، مما يعزز الابتكار والنمو.</t>
+  </si>
+  <si>
+    <t>يعد فرصة مهمة لتوسيع شبكة العلاقات والبحث عن فرص جديدة في عالم الأعمال، مما يسهم في تعزيز التوجهات العالمية.</t>
+  </si>
+  <si>
+    <t>يتطلب التحضير للمنتدى تجهيز المشاركين والمحتوى بشكل دقيق. العد التنازلي يضيف حماسًا وتوقعًا للحدث.</t>
+  </si>
+  <si>
+    <t>إن منتدى RLC العالمي 2025 سيساهم في تعزيز الابتكار وبناء شراكات جديدة. العد التنازلي للحدث يجعل الجميع في حالة من الحماس والترقب.</t>
+  </si>
+  <si>
+    <t>يمكنكم معرفة كم باقي على منتدى RLC العالمي لعام 2025 من خلال موقعنا، حيث يمكنكم معرفة موعد المنتدى ومتى يبدأ. العد التنازلي لهذا الحدث سيزيد من اهتمام الجميع.</t>
+  </si>
+  <si>
+    <t>منتدى RLC، كم باقي، موعد المنتدى، العد التنازلي، الفعاليات، الابتكار، التجارة</t>
+  </si>
+  <si>
+    <t>كم باقي على معرض تصميم وبناء المستشفيات السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_معرض_تصميم_وبناء_المستشفيات_السعودية_2025</t>
+  </si>
+  <si>
+    <t>يُعد معرض تصميم وبناء المستشفيات السعودية 2025 فرصة مثالية للمهنيين في مجال الرعاية الصحية لمناقشة أحدث الابتكارات في تصميم وبناء المرافق الصحية. يتساءل الجميع "كم باقي على المعرض؟" حيث يبدأ العد التنازلي لهذا الحدث الذي يعد فرصة فريدة للتعلم والنقاش. يمكنكم معرفة موعد المعرض ومتى سيبدأ من خلال موقعنا.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لمعرض تصميم وبناء المستشفيات السعودية 2025</t>
+  </si>
+  <si>
+    <t>يمثل المعرض منصة هامة لتحسين مستوى الخدمات الصحية وتطوير البنية التحتية للرعاية الصحية في السعودية.</t>
+  </si>
+  <si>
+    <t>يعد فرصة لمتخصصي الرعاية الصحية لاستكشاف أحدث الاتجاهات والتقنيات في تصميم المستشفيات، مما يسهم في تحسين جودة الخدمات الصحية.</t>
+  </si>
+  <si>
+    <t>يتطلب التحضير للمعرض تجهيز الأنشطة والعروض التي تعكس التوجهات الحديثة في تصميم المستشفيات. العد التنازلي يخلق جوًا من الإثارة بين المشاركين.</t>
+  </si>
+  <si>
+    <t>إن معرض تصميم وبناء المستشفيات السعودية 2025 سيكون له تأثير كبير على تطوير الرعاية الصحية في المملكة. العد التنازلي يعكس حماس الجميع للمشاركة في الحدث.</t>
+  </si>
+  <si>
+    <t>يمكنكم معرفة كم باقي على معرض تصميم وبناء المستشفيات السعودية 2025 من خلال موقعنا، حيث يمكنكم معرفة موعد المعرض ومتى يبدأ. العد التنازلي لهذا الحدث سيزيد من الحماس.</t>
+  </si>
+  <si>
+    <t>تصميم المستشفيات، كم باقي، موعد المعرض، العد التنازلي، الفعاليات، الرعاية الصحية، الابتكار</t>
+  </si>
+  <si>
+    <t>كم باقي على مشاريع جيجا السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_مشاريع_جيجا_السعودية_2025</t>
+  </si>
+  <si>
+    <t>2025-05-12T00:00:00</t>
+  </si>
+  <si>
+    <t>مشاريع جيجا السعودية 2025 هي حدث كبير ينتظره الجميع بفارغ الصبر. يُعتبر هذا المشروع خطوة هامة نحو التطور في المملكة، حيث سيجمع الخبراء والمختصين لمناقشة أحدث الابتكارات والتقنيات في عالم المشاريع العملاقة. إن العد التنازلي لهذا الحدث يحمل في طياته الكثير من التوقعات والإثارة، حيث يتساءل الجميع "كم باقي على مشاريع جيجا السعودية؟" من خلال موقعنا، يمكنكم معرفة موعد بدء هذا الحدث الكبير ومتى سيكون.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لمشاريع جيجا السعودية 2025</t>
+  </si>
+  <si>
+    <t>يمثل الحدث فرصة كبيرة للتواصل مع رواد الأعمال والمستثمرين في مشاريع البناء والتطوير، مما يعزز من فرص التعاون والشراكات.</t>
+  </si>
+  <si>
+    <t>تعتبر مشاريع جيجا السعودية 2025 فرصة فريدة لتسليط الضوء على أهمية الابتكار في التطوير العمراني، وتطوير البنية التحتية في المملكة.</t>
+  </si>
+  <si>
+    <t>التحضير لمشاريع جيجا السعودية يتطلب تنظيمًا جيدًا، بما في ذلك إعداد العروض التقديمية والمواد التسويقية. العد التنازلي لهذا الحدث يضيف جوًا من الحماس والترقب.</t>
+  </si>
+  <si>
+    <t>مشاريع جيجا السعودية 2025 تمثل نقطة انطلاق جديدة في مسيرة التطوير في المملكة. العد التنازلي لهذا الحدث يساهم في زيادة التفاعل والتوقعات لدى المشاركين، مما يجعل الجميع في حالة من الحماس.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذا الموقع معرفة كم باقي على مشاريع جيجا السعودية 2025، حيث يمكنكم معرفة موعد هذا الحدث ومتى يبدأ. العد التنازلي لمشاريع جيجا السعودية سيجعل الجميع في حالة انتظار وترقب.</t>
+  </si>
+  <si>
+    <t>مشاريع جيجا، كم باقي، موعد المشاريع، العد التنازلي، الفعاليات، التطوير، الابتكار</t>
+  </si>
+  <si>
+    <t>saudi-plastic-exhibition.webp</t>
+  </si>
+  <si>
+    <t>fabric-expo.webp</t>
+  </si>
+  <si>
+    <t>rlc-forum.webp</t>
+  </si>
+  <si>
+    <t>hospital-expo.webp</t>
+  </si>
+  <si>
+    <t>giga-projects.webp</t>
+  </si>
+  <si>
+    <t>intersec-exhibition.webp</t>
+  </si>
+  <si>
+    <t>pharmacy-exhibition.webp</t>
+  </si>
+  <si>
+    <t>اليوم الوطني السعودي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>يوم التأسيس السعودي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>إجازة منتصف العام الدراسي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>بداية الدراسة بعد إجازة منتصف العام الدراسي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>نهاية الفصل الدراسي الثاني في السعودية 2025</t>
+  </si>
+  <si>
+    <t>إجازة الشتاء في السعودية 2025</t>
+  </si>
+  <si>
+    <t>بداية الدراسة للفصل الدراسي الثالث في السعودية 2025</t>
+  </si>
+  <si>
+    <t>يوم مبادرة السعودية الخضراء في السعودية 2025</t>
+  </si>
+  <si>
+    <t>عيد الأم في السعودية 2025</t>
+  </si>
+  <si>
+    <t>عيد المعلم في السعودية 2025</t>
+  </si>
+  <si>
+    <t>بلاك فرايدي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>بدء المدرسة في السعودية 2025</t>
+  </si>
+  <si>
+    <t>المعرض التجاري السعودي للبلاستيك في السعودية 2025</t>
+  </si>
+  <si>
+    <t>المعرض والمؤتمر التجاري للأمن والسلامة في السعودية 2025</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي الرابع للصيدلة في السعودية 2025</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للمختبرات في السعودية 2025</t>
+  </si>
+  <si>
+    <t>المعرض السعودي للصناعة الغذائية في السعودية 2025</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للإمتياز التجاري في السعودية 2025</t>
+  </si>
+  <si>
+    <t>المعرض السعودي الدولي للثروة السمكية في السعودية 2025</t>
+  </si>
+  <si>
+    <t>معرض الأقمشة الرجالية والإكسسوارات في السعودية 2025</t>
+  </si>
+  <si>
+    <t>منتدى RLC العالمي في السعودية 2025</t>
+  </si>
+  <si>
+    <t>معرض تصميم وبناء المستشفيات السعودية في السعودية 2025</t>
+  </si>
+  <si>
+    <t>مشاريع جيجا السعودية في السعودية 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,26 +1094,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,30 +1422,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:U501"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -557,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -566,16 +1464,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -590,315 +1488,1455 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="288" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>CONCATENATE(A2," ", E2)</f>
-        <v>كم باقي على الجامعة في السعودية 2025</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45301</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45593</v>
       </c>
       <c r="E2">
         <v>2025</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>CONCATENATE(E2, "-08-24T00:00:00")</f>
-        <v>2025-08-24T00:00:00</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E2, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E2, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
-        <v>يُعد كم باقي على المدارس مرحلة مهمة في 2025 مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس 2025 يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E2, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
-        <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس 2025 قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f>CONCATENATE("كم باقي على المدارس ",E2," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E2)</f>
-        <v>كم باقي على المدارس 2025 هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس 2025</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="U2">
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="b">
         <v>1</v>
       </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f>CONCATENATE(A3," ", E2)</f>
-        <v>كم باقي على افتتاح شركة آبل في السعودية 2025</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45302</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="288" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>CONCATENATE(A4, " ",E3)</f>
-        <v xml:space="preserve">كم باقي على عطلة عيد العمال في السعودية </v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45303</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E4">
+        <v>2025</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="str">
-        <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E4, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E4, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
-        <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
-      </c>
-      <c r="M4" s="1" t="str">
-        <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E4, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
-        <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <f>CONCATENATE("كم باقي على المدارس ",E4," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E4)</f>
-        <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="R4" t="b">
         <v>1</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="288" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f>CONCATENATE(A5, " ",E4)</f>
-        <v xml:space="preserve">كم باقي على عطلة رأس السنة الهجرية في السعودية </v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45303</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E5">
+        <v>2025</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E5, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E5, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
-        <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E5, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
-        <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
-      </c>
-      <c r="N5" s="1" t="str">
-        <f>CONCATENATE("كم باقي على المدارس ",E5," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E5)</f>
-        <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5">
-        <v>4</v>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="288" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>CONCATENATE(A6, " ",E5)</f>
-        <v xml:space="preserve">كم باقي على عطلة عيد الشهداء في السعودية </v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45303</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E6">
+        <v>2025</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f>CONCATENATE("يُعد كم باقي على المدارس مرحلة مهمة في ",E6, " مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس ",E6, " يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.")</f>
-        <v>يُعد كم باقي على المدارس مرحلة مهمة في  مرحلة مهمة في السنة، حيث يستعد الناس لترتيب أولوياتهم والاستعدادات الخاصة بهم. سواء كنت طالبًا أو شخصًا يخطط لصيام رمضان، فإن كم باقي على المدارس  يساعدك في ترتيب أمورك بشكل أفضل وتخطيط جدولك بشكل مناسب.</v>
-      </c>
-      <c r="M6" s="1" t="str">
-        <f>CONCATENATE("يجب أن تبدأ التحضير لـ كم باقي على المدارس ",E6, " قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.")</f>
-        <v>يجب أن تبدأ التحضير لـ كم باقي على المدارس  قبل وقت كافٍ. يمكن البدء بترتيب قائمة بالمهام التي تحتاج إلى إنجازها والتأكد من أنك مستعد لكل شيء. التخطيط المبكر سيضمن لك تجربة إيجابية عند حدوث هذا الحدث الهام.</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f>CONCATENATE("كم باقي على المدارس ",E6," هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس ",E6)</f>
-        <v xml:space="preserve">كم باقي على المدارس  هو حدث يجب التحضير له بشكل مسبق لضمان النجاح والاستفادة القصوى. باستخدام هذا المقال، ستكون مستعدًا بالكامل لمواجهة أي تحديات قد تواجهك خلال كم باقي على المدارس </v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6">
-        <v>5</v>
+      <c r="S6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E7">
+        <v>2025</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E8">
+        <v>2025</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>163</v>
+      </c>
+      <c r="T10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>164</v>
+      </c>
+      <c r="T11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>216</v>
+      </c>
+      <c r="T14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>216</v>
+      </c>
+      <c r="T15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>216</v>
+      </c>
+      <c r="T16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>216</v>
+      </c>
+      <c r="T17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>216</v>
+      </c>
+      <c r="T18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>216</v>
+      </c>
+      <c r="T19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>216</v>
+      </c>
+      <c r="T20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>216</v>
+      </c>
+      <c r="T21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>216</v>
+      </c>
+      <c r="T22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>216</v>
+      </c>
+      <c r="T23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45593</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>216</v>
+      </c>
+      <c r="T24" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{6AFA17A6-170D-447A-AB98-12A1802A6EF4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/client/src/Excel/Data/Countries/sa.xlsx
+++ b/client/src/Excel/Data/Countries/sa.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066EDEA5-79A8-4E1A-B99F-BB1E48A68AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01392365-4279-437A-83ED-9285FF37CC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>موعد إجازة منتصف العام الدراسي في السعودية 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_بداية_الدراسة_بعد_إجازة_منتصف_العام_الدراسي</t>
-  </si>
-  <si>
     <t>تعتبر بداية الدراسة بعد إجازة منتصف العام الدراسي في السعودية 2025 فترة حيوية حيث يعود الطلاب إلى مقاعد الدراسة بعد استراحة ممتدة. في 22 فبراير 2025، يعود الطلاب لاستئناف دراستهم بحماس ونشاط بعد إجازة منحتهم الفرصة للاسترخاء وتجديد النشاط. يتطلع الجميع لمعرفة "كم باقي على بداية الدراسة؟" خاصةً الطلاب الذين كانوا مشغولين بالأنشطة الترفيهية خلال الإجازة. العودة إلى المدرسة تعني أيضاً استعادة الروتين اليومي والالتزام بالدراسة.</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>موعد بداية الدراسة بعد إجازة منتصف العام الدراسي في السعودية 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_نهاية_الفصل_الدراسي_الثاني_في_السعودية</t>
-  </si>
-  <si>
     <t>2025-02-20T00:00:00</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t>موعد إجازة الشتاء في السعودية 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_بداية_الدراسة_للفصل_الدراسي_الثالث_في_السعودية</t>
-  </si>
-  <si>
     <t>2025-03-02T00:00:00</t>
   </si>
   <si>
@@ -591,9 +582,6 @@
     <t>كم باقي على المعرض التجاري السعودي للبلاستيك والبتروكيماويات 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_المعرض_التجاري_السعودي_2025</t>
-  </si>
-  <si>
     <t>2025-05-15T00:00:00</t>
   </si>
   <si>
@@ -621,9 +609,6 @@
     <t>كم باقي على المعرض والمؤتمر التجاري للأمن والسلامة – إنترسيك 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_المعرض_الأمني_السعودي_2025</t>
-  </si>
-  <si>
     <t>2025-01-16T00:00:00</t>
   </si>
   <si>
@@ -651,9 +636,6 @@
     <t>كم باقي على المعرض السعودي الدولي الرابع للصيدلة 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_معرض_الصيدلة_السعودي_2025</t>
-  </si>
-  <si>
     <t>2025-09-24T00:00:00</t>
   </si>
   <si>
@@ -690,9 +672,6 @@
     <t>lab-exhibition-saudi.webp</t>
   </si>
   <si>
-    <t>كم_باقي_على_المعرض_السعودي_الدولي_للمختبرات_2025</t>
-  </si>
-  <si>
     <t>2025-09-22T00:00:00</t>
   </si>
   <si>
@@ -723,9 +702,6 @@
     <t>food-exhibition-saudi.webp</t>
   </si>
   <si>
-    <t>كم_باقي_على_المعرض_السعودي_للصناعة_الغذائية_2025</t>
-  </si>
-  <si>
     <t>2025-04-13T00:00:00</t>
   </si>
   <si>
@@ -756,9 +732,6 @@
     <t>franchise-expo.webp</t>
   </si>
   <si>
-    <t>كم_باقي_على_المعرض_السعودي_الدولي_للإمتياز_التجاري</t>
-  </si>
-  <si>
     <t>2025-01-27T00:00:00</t>
   </si>
   <si>
@@ -792,9 +765,6 @@
     <t>fish-expo.webp</t>
   </si>
   <si>
-    <t>كم_باقي_على_المعرض_السعودي_الدولي_للثروة_السمكية</t>
-  </si>
-  <si>
     <t>2025-02-03T00:00:00</t>
   </si>
   <si>
@@ -840,9 +810,6 @@
     <t>كم باقي على معرض الأقمشة الرجالية والإكسسوارات 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_معرض_الأقمشة_الرجالية_والإكسسوارات_2025</t>
-  </si>
-  <si>
     <t>2025-02-02T00:00:00</t>
   </si>
   <si>
@@ -873,9 +840,6 @@
     <t>كم باقي على منتدى RLC العالمي لعام 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_منتدى_RLC_العالمي_لعام_2025</t>
-  </si>
-  <si>
     <t>2025-02-04T00:00:00</t>
   </si>
   <si>
@@ -906,9 +870,6 @@
     <t>كم باقي على معرض تصميم وبناء المستشفيات السعودية 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_معرض_تصميم_وبناء_المستشفيات_السعودية_2025</t>
-  </si>
-  <si>
     <t>يُعد معرض تصميم وبناء المستشفيات السعودية 2025 فرصة مثالية للمهنيين في مجال الرعاية الصحية لمناقشة أحدث الابتكارات في تصميم وبناء المرافق الصحية. يتساءل الجميع "كم باقي على المعرض؟" حيث يبدأ العد التنازلي لهذا الحدث الذي يعد فرصة فريدة للتعلم والنقاش. يمكنكم معرفة موعد المعرض ومتى سيبدأ من خلال موقعنا.</t>
   </si>
   <si>
@@ -936,9 +897,6 @@
     <t>كم باقي على مشاريع جيجا السعودية 2025</t>
   </si>
   <si>
-    <t>كم_باقي_على_مشاريع_جيجا_السعودية_2025</t>
-  </si>
-  <si>
     <t>2025-05-12T00:00:00</t>
   </si>
   <si>
@@ -1054,6 +1012,48 @@
   </si>
   <si>
     <t>مشاريع جيجا السعودية في السعودية 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_بداية_الدراسة_الفصل_الثاني_السعودية</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_نهاية_الفصل_الدراسي_الثاني_السعودية</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_بداية_الدراسة_للفصل_الثالث_السعودية</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_السعودي_للصناعة_الغذائي</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_السعودي_الدولي_للمختبرات</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_منتدى_RLC_العالمي_السعودية</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_مشاريع_جيجا_السعودية</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_معرض_الصيدلة_السعودي</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_الأمني_السعودي</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المعرض_التجاري_السعودي</t>
+  </si>
+  <si>
+    <t>موعد_المعرض_السعودي_الدولي_للإمتياز_التجاري</t>
+  </si>
+  <si>
+    <t>موعد_المعرض_السعودي_الدولي_للثروة_السمكية</t>
+  </si>
+  <si>
+    <t>موعد_معرض_الأقمشة_الرجالية_والإكسسوارات</t>
+  </si>
+  <si>
+    <t>موعد_معرض_تصميم_وبناء_المستشفيات_السعودية</t>
   </si>
 </sst>
 </file>
@@ -1426,25 +1426,25 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1506,12 +1506,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1526,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -1550,10 +1550,10 @@
         <v>29</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q2" t="s">
         <v>17</v>
@@ -1568,12 +1568,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1588,7 +1588,7 @@
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
@@ -1612,10 +1612,10 @@
         <v>39</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q3" t="s">
         <v>17</v>
@@ -1630,15 +1630,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3">
         <v>45593</v>
@@ -1650,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
@@ -1674,10 +1674,10 @@
         <v>50</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q4" t="s">
         <v>17</v>
@@ -1692,15 +1692,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3">
         <v>45593</v>
@@ -1709,37 +1709,37 @@
         <v>2025</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
       <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>57</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>58</v>
       </c>
-      <c r="N5" t="s">
-        <v>59</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q5" t="s">
         <v>17</v>
@@ -1748,21 +1748,21 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" t="s">
         <v>60</v>
       </c>
-      <c r="T5" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3">
         <v>45593</v>
@@ -1771,37 +1771,37 @@
         <v>2025</v>
       </c>
       <c r="F6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>65</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>66</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>67</v>
       </c>
-      <c r="M6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" t="s">
-        <v>69</v>
-      </c>
       <c r="O6" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="s">
         <v>17</v>
@@ -1810,21 +1810,21 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3">
         <v>45593</v>
@@ -1833,37 +1833,37 @@
         <v>2025</v>
       </c>
       <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
         <v>72</v>
       </c>
-      <c r="G7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>73</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>76</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>77</v>
       </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q7" t="s">
         <v>17</v>
@@ -1872,21 +1872,21 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3">
         <v>45593</v>
@@ -1895,37 +1895,37 @@
         <v>2025</v>
       </c>
       <c r="F8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
         <v>82</v>
       </c>
-      <c r="G8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>83</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>84</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>85</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>86</v>
       </c>
-      <c r="L8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q8" t="s">
         <v>17</v>
@@ -1934,21 +1934,21 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3">
         <v>45593</v>
@@ -1957,37 +1957,37 @@
         <v>2025</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="Q9" t="s">
         <v>17</v>
@@ -1996,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D10" s="3">
         <v>45593</v>
@@ -2019,37 +2019,37 @@
         <v>2025</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="Q10" t="s">
         <v>17</v>
@@ -2058,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D11" s="3">
         <v>45593</v>
@@ -2081,37 +2081,37 @@
         <v>2025</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="Q11" t="s">
         <v>17</v>
@@ -2120,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3">
         <v>45593</v>
@@ -2143,37 +2143,37 @@
         <v>2025</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="Q12" t="s">
         <v>17</v>
@@ -2182,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3">
         <v>45593</v>
@@ -2205,37 +2205,37 @@
         <v>2025</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="Q13" t="s">
         <v>17</v>
@@ -2244,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="T13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D14" s="3">
         <v>45593</v>
@@ -2267,37 +2267,37 @@
         <v>2025</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="Q14" t="s">
         <v>17</v>
@@ -2306,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D15" s="3">
         <v>45593</v>
@@ -2329,37 +2329,37 @@
         <v>2025</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="Q15" t="s">
         <v>17</v>
@@ -2368,21 +2368,21 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D16" s="3">
         <v>45593</v>
@@ -2391,37 +2391,37 @@
         <v>2025</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="Q16" t="s">
         <v>17</v>
@@ -2430,21 +2430,21 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D17" s="3">
         <v>45593</v>
@@ -2453,37 +2453,37 @@
         <v>2025</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="Q17" t="s">
         <v>17</v>
@@ -2492,21 +2492,21 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D18" s="3">
         <v>45593</v>
@@ -2515,37 +2515,37 @@
         <v>2025</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="Q18" t="s">
         <v>17</v>
@@ -2554,21 +2554,21 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D19" s="3">
         <v>45593</v>
@@ -2577,37 +2577,37 @@
         <v>2025</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="Q19" t="s">
         <v>17</v>
@@ -2616,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T19" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D20" s="3">
         <v>45593</v>
@@ -2639,37 +2639,37 @@
         <v>2025</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q20" t="s">
         <v>17</v>
@@ -2678,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D21" s="3">
         <v>45593</v>
@@ -2701,37 +2701,37 @@
         <v>2025</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q21" t="s">
         <v>17</v>
@@ -2740,21 +2740,21 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T21" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D22" s="3">
         <v>45593</v>
@@ -2763,37 +2763,37 @@
         <v>2025</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="Q22" t="s">
         <v>17</v>
@@ -2802,21 +2802,21 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D23" s="3">
         <v>45593</v>
@@ -2825,37 +2825,37 @@
         <v>2025</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="Q23" t="s">
         <v>17</v>
@@ -2864,21 +2864,21 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T23" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D24" s="3">
         <v>45593</v>
@@ -2887,37 +2887,37 @@
         <v>2025</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="Q24" t="s">
         <v>17</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="T24" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/client/src/Excel/Data/Countries/sa.xlsx
+++ b/client/src/Excel/Data/Countries/sa.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01392365-4279-437A-83ED-9285FF37CC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C28CB-132A-4C52-8CE6-CCE5E7F10AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,25 +1426,25 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.68359375" customWidth="1"/>
+    <col min="4" max="4" width="12.1015625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.20703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.68359375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2">
         <v>2025</v>
@@ -1568,7 +1568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3">
         <v>2025</v>
@@ -1630,7 +1630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -1692,7 +1692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>96</v>
       </c>
       <c r="D5" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -1754,7 +1754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>90</v>
       </c>
       <c r="D6" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -1816,7 +1816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>89</v>
       </c>
       <c r="D7" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7">
         <v>2025</v>
@@ -1878,7 +1878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>96</v>
       </c>
       <c r="D8" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8">
         <v>2025</v>
@@ -1940,7 +1940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9" s="4">
         <v>2025</v>
@@ -2002,7 +2002,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>146</v>
       </c>
       <c r="D10" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10" s="4">
         <v>2025</v>
@@ -2064,7 +2064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>147</v>
       </c>
       <c r="D11" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11" s="4">
         <v>2025</v>
@@ -2126,7 +2126,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>158</v>
       </c>
       <c r="D12" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E12" s="4">
         <v>2025</v>
@@ -2188,7 +2188,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E13" s="4">
         <v>2025</v>
@@ -2250,7 +2250,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>297</v>
       </c>
       <c r="D14" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E14" s="4">
         <v>2025</v>
@@ -2312,7 +2312,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>302</v>
       </c>
       <c r="D15" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E15" s="4">
         <v>2025</v>
@@ -2374,7 +2374,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>303</v>
       </c>
       <c r="D16" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E16" s="4">
         <v>2025</v>
@@ -2436,7 +2436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>212</v>
       </c>
       <c r="D17" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E17" s="4">
         <v>2025</v>
@@ -2498,7 +2498,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E18" s="4">
         <v>2025</v>
@@ -2560,7 +2560,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>232</v>
       </c>
       <c r="D19" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E19" s="4">
         <v>2025</v>
@@ -2622,7 +2622,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>243</v>
       </c>
       <c r="D20" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E20" s="4">
         <v>2025</v>
@@ -2684,7 +2684,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>298</v>
       </c>
       <c r="D21" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E21" s="4">
         <v>2025</v>
@@ -2746,7 +2746,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>299</v>
       </c>
       <c r="D22" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E22" s="4">
         <v>2025</v>
@@ -2808,7 +2808,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>300</v>
       </c>
       <c r="D23" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E23" s="4">
         <v>2025</v>
@@ -2870,7 +2870,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>301</v>
       </c>
       <c r="D24" s="3">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E24" s="4">
         <v>2025</v>
